--- a/data/raw/退市资料.xlsx
+++ b/data/raw/退市资料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18255" windowHeight="11610"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18255" windowHeight="14310"/>
   </bookViews>
   <sheets>
     <sheet name="Wind资讯" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="476">
   <si>
     <t>代码</t>
   </si>
@@ -60,24 +60,39 @@
     <t>重组后证券类型</t>
   </si>
   <si>
+    <t>831180.OC</t>
+  </si>
+  <si>
+    <t>华苏科技(退市)</t>
+  </si>
+  <si>
+    <t>吸收合并</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>三板股</t>
+  </si>
+  <si>
+    <t>835696.OC</t>
+  </si>
+  <si>
+    <t>雅路智能(退市)</t>
+  </si>
+  <si>
     <t>000024.SZ</t>
   </si>
   <si>
     <t>招商地产(退市)</t>
   </si>
   <si>
-    <t>吸收合并</t>
-  </si>
-  <si>
     <t>001979.SZ</t>
   </si>
   <si>
     <t>招商蛇口</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>A股</t>
   </si>
   <si>
@@ -96,9 +111,6 @@
     <t>众合医药(退市)</t>
   </si>
   <si>
-    <t>三板股</t>
-  </si>
-  <si>
     <t>831812.OC</t>
   </si>
   <si>
@@ -150,33 +162,33 @@
     <t>众益制药(退市)</t>
   </si>
   <si>
+    <t>200770.SZ</t>
+  </si>
+  <si>
+    <t>武锅B(退市)</t>
+  </si>
+  <si>
+    <t>连续四年亏损</t>
+  </si>
+  <si>
+    <t>420063.OC</t>
+  </si>
+  <si>
+    <t>武锅B5</t>
+  </si>
+  <si>
     <t>000594.SZ</t>
   </si>
   <si>
     <t>国恒(退市)</t>
   </si>
   <si>
-    <t>连续四年亏损</t>
-  </si>
-  <si>
     <t>400064.OC</t>
   </si>
   <si>
     <t>国恒3</t>
   </si>
   <si>
-    <t>200770.SZ</t>
-  </si>
-  <si>
-    <t>武锅B(退市)</t>
-  </si>
-  <si>
-    <t>420063.OC</t>
-  </si>
-  <si>
-    <t>武锅B3</t>
-  </si>
-  <si>
     <t>831976.OC</t>
   </si>
   <si>
@@ -201,6 +213,18 @@
     <t>二重5</t>
   </si>
   <si>
+    <t>601299.SH</t>
+  </si>
+  <si>
+    <t>中国北车(退市)</t>
+  </si>
+  <si>
+    <t>601766.SH</t>
+  </si>
+  <si>
+    <t>中国中车</t>
+  </si>
+  <si>
     <t>600832.SH</t>
   </si>
   <si>
@@ -213,18 +237,6 @@
     <t>东方明珠</t>
   </si>
   <si>
-    <t>601299.SH</t>
-  </si>
-  <si>
-    <t>中国北车(退市)</t>
-  </si>
-  <si>
-    <t>601766.SH</t>
-  </si>
-  <si>
-    <t>中国中车</t>
-  </si>
-  <si>
     <t>831127.OC</t>
   </si>
   <si>
@@ -279,18 +291,18 @@
     <t>泽天盛海(退市)</t>
   </si>
   <si>
+    <t>830804.OC</t>
+  </si>
+  <si>
+    <t>日新传导(退市)</t>
+  </si>
+  <si>
     <t>430043.OC</t>
   </si>
   <si>
     <t>世纪东方(退市)</t>
   </si>
   <si>
-    <t>830804.OC</t>
-  </si>
-  <si>
-    <t>日新传导(退市)</t>
-  </si>
-  <si>
     <t>430129.OC</t>
   </si>
   <si>
@@ -600,24 +612,24 @@
     <t>吉林高速</t>
   </si>
   <si>
+    <t>600607.SH</t>
+  </si>
+  <si>
+    <t>上实医药(退市)</t>
+  </si>
+  <si>
+    <t>601607.SH</t>
+  </si>
+  <si>
+    <t>上海医药</t>
+  </si>
+  <si>
     <t>600842.SH</t>
   </si>
   <si>
     <t>中西药业(退市)</t>
   </si>
   <si>
-    <t>601607.SH</t>
-  </si>
-  <si>
-    <t>上海医药</t>
-  </si>
-  <si>
-    <t>600607.SH</t>
-  </si>
-  <si>
-    <t>上实医药(退市)</t>
-  </si>
-  <si>
     <t>600591.SH</t>
   </si>
   <si>
@@ -630,24 +642,24 @@
     <t>东方航空</t>
   </si>
   <si>
+    <t>600001.SH</t>
+  </si>
+  <si>
+    <t>邯郸钢铁(退市)</t>
+  </si>
+  <si>
+    <t>000709.SZ</t>
+  </si>
+  <si>
+    <t>河钢股份</t>
+  </si>
+  <si>
     <t>600357.SH</t>
   </si>
   <si>
     <t>承德钒钛(退市)</t>
   </si>
   <si>
-    <t>000709.SZ</t>
-  </si>
-  <si>
-    <t>河钢股份</t>
-  </si>
-  <si>
-    <t>600001.SH</t>
-  </si>
-  <si>
-    <t>邯郸钢铁(退市)</t>
-  </si>
-  <si>
     <t>200041.SZ</t>
   </si>
   <si>
@@ -696,7 +708,7 @@
     <t>000629.SZ</t>
   </si>
   <si>
-    <t>攀钢钒钛</t>
+    <t>*ST钒钛</t>
   </si>
   <si>
     <t>000569.SZ</t>
@@ -750,7 +762,7 @@
     <t>400057.OC</t>
   </si>
   <si>
-    <t>联谊5</t>
+    <t>联谊3</t>
   </si>
   <si>
     <t>600762.SH</t>
@@ -792,7 +804,7 @@
     <t>400055.OC</t>
   </si>
   <si>
-    <t>国瓷3</t>
+    <t>国瓷5</t>
   </si>
   <si>
     <t>000583.SZ</t>
@@ -807,18 +819,18 @@
     <t>托普1</t>
   </si>
   <si>
+    <t>600296.SH</t>
+  </si>
+  <si>
+    <t>S兰铝(退市)</t>
+  </si>
+  <si>
     <t>600205.SH</t>
   </si>
   <si>
     <t>S山东铝(退市)</t>
   </si>
   <si>
-    <t>600296.SH</t>
-  </si>
-  <si>
-    <t>S兰铝(退市)</t>
-  </si>
-  <si>
     <t>000549.SZ</t>
   </si>
   <si>
@@ -897,6 +909,12 @@
     <t>齐鲁石化(退市)</t>
   </si>
   <si>
+    <t>000406.SZ</t>
+  </si>
+  <si>
+    <t>石油大明(退市)</t>
+  </si>
+  <si>
     <t>000956.SZ</t>
   </si>
   <si>
@@ -909,12 +927,6 @@
     <t>扬子石化(退市)</t>
   </si>
   <si>
-    <t>000406.SZ</t>
-  </si>
-  <si>
-    <t>石油大明(退市)</t>
-  </si>
-  <si>
     <t>600659.SH</t>
   </si>
   <si>
@@ -933,30 +945,30 @@
     <t>吉林化工(退市)</t>
   </si>
   <si>
+    <t>000763.SZ</t>
+  </si>
+  <si>
+    <t>锦州石化(退市)</t>
+  </si>
+  <si>
+    <t>600799.SH</t>
+  </si>
+  <si>
+    <t>*ST龙科(退市)</t>
+  </si>
+  <si>
+    <t>400048.OC</t>
+  </si>
+  <si>
+    <t>龙科1</t>
+  </si>
+  <si>
     <t>000817.SZ</t>
   </si>
   <si>
     <t>辽河油田(退市)</t>
   </si>
   <si>
-    <t>000763.SZ</t>
-  </si>
-  <si>
-    <t>锦州石化(退市)</t>
-  </si>
-  <si>
-    <t>600799.SH</t>
-  </si>
-  <si>
-    <t>*ST龙科(退市)</t>
-  </si>
-  <si>
-    <t>400048.OC</t>
-  </si>
-  <si>
-    <t>龙科1</t>
-  </si>
-  <si>
     <t>600752.SH</t>
   </si>
   <si>
@@ -966,7 +978,7 @@
     <t>400044.OC</t>
   </si>
   <si>
-    <t>哈慈3</t>
+    <t>哈慈1</t>
   </si>
   <si>
     <t>600899.SH</t>
@@ -981,6 +993,42 @@
     <t>信联1</t>
   </si>
   <si>
+    <t>000827.SZ</t>
+  </si>
+  <si>
+    <t>*ST长兴(退市)</t>
+  </si>
+  <si>
+    <t>400043.OC</t>
+  </si>
+  <si>
+    <t>长兴1</t>
+  </si>
+  <si>
+    <t>000535.SZ</t>
+  </si>
+  <si>
+    <t>*ST猴王(退市)</t>
+  </si>
+  <si>
+    <t>400045.OC</t>
+  </si>
+  <si>
+    <t>猴王1</t>
+  </si>
+  <si>
+    <t>200057.SZ</t>
+  </si>
+  <si>
+    <t>*ST大洋B(退市)</t>
+  </si>
+  <si>
+    <t>420047.OC</t>
+  </si>
+  <si>
+    <t>大洋B1</t>
+  </si>
+  <si>
     <t>000769.SZ</t>
   </si>
   <si>
@@ -993,42 +1041,6 @@
     <t>大菲1</t>
   </si>
   <si>
-    <t>000827.SZ</t>
-  </si>
-  <si>
-    <t>*ST长兴(退市)</t>
-  </si>
-  <si>
-    <t>400043.OC</t>
-  </si>
-  <si>
-    <t>长兴1</t>
-  </si>
-  <si>
-    <t>000535.SZ</t>
-  </si>
-  <si>
-    <t>*ST猴王(退市)</t>
-  </si>
-  <si>
-    <t>400045.OC</t>
-  </si>
-  <si>
-    <t>猴王1</t>
-  </si>
-  <si>
-    <t>200057.SZ</t>
-  </si>
-  <si>
-    <t>*ST大洋B(退市)</t>
-  </si>
-  <si>
-    <t>420047.OC</t>
-  </si>
-  <si>
-    <t>大洋B1</t>
-  </si>
-  <si>
     <t>600700.SH</t>
   </si>
   <si>
@@ -1062,7 +1074,7 @@
     <t>400039.OC</t>
   </si>
   <si>
-    <t>华圣1</t>
+    <t>华圣5</t>
   </si>
   <si>
     <t>000765.SZ</t>
@@ -1107,6 +1119,18 @@
     <t>比特1</t>
   </si>
   <si>
+    <t>000730.SZ</t>
+  </si>
+  <si>
+    <t>*ST环保(退市)</t>
+  </si>
+  <si>
+    <t>400036.OC</t>
+  </si>
+  <si>
+    <t>环保5</t>
+  </si>
+  <si>
     <t>600670.SH</t>
   </si>
   <si>
@@ -1119,18 +1143,6 @@
     <t>斯达1</t>
   </si>
   <si>
-    <t>000730.SZ</t>
-  </si>
-  <si>
-    <t>*ST环保(退市)</t>
-  </si>
-  <si>
-    <t>400036.OC</t>
-  </si>
-  <si>
-    <t>环保5</t>
-  </si>
-  <si>
     <t>200013.SZ</t>
   </si>
   <si>
@@ -1176,7 +1188,7 @@
     <t>400031.OC</t>
   </si>
   <si>
-    <t>鞍合成1</t>
+    <t>鞍合成3</t>
   </si>
   <si>
     <t>000660.SZ</t>
@@ -1188,7 +1200,7 @@
     <t>400029.OC</t>
   </si>
   <si>
-    <t>汇集1</t>
+    <t>汇集5</t>
   </si>
   <si>
     <t>000405.SZ</t>
@@ -1224,7 +1236,7 @@
     <t>400017.OC</t>
   </si>
   <si>
-    <t>国嘉1</t>
+    <t>国嘉5</t>
   </si>
   <si>
     <t>000412.SZ</t>
@@ -1320,7 +1332,19 @@
     <t>400018.OC</t>
   </si>
   <si>
-    <t>银化3</t>
+    <t>银化1</t>
+  </si>
+  <si>
+    <t>000003.SZ</t>
+  </si>
+  <si>
+    <t>PT金田A(退市)</t>
+  </si>
+  <si>
+    <t>400016.OC</t>
+  </si>
+  <si>
+    <t>金田A3</t>
   </si>
   <si>
     <t>200003.SZ</t>
@@ -1335,18 +1359,6 @@
     <t>金田B3</t>
   </si>
   <si>
-    <t>000003.SZ</t>
-  </si>
-  <si>
-    <t>PT金田A(退市)</t>
-  </si>
-  <si>
-    <t>400016.OC</t>
-  </si>
-  <si>
-    <t>金田A3</t>
-  </si>
-  <si>
     <t>000556.SZ</t>
   </si>
   <si>
@@ -1359,6 +1371,18 @@
     <t>南洋5</t>
   </si>
   <si>
+    <t>200015.SZ</t>
+  </si>
+  <si>
+    <t>PT中浩B(退市)</t>
+  </si>
+  <si>
+    <t>420011.OC</t>
+  </si>
+  <si>
+    <t>中浩B5</t>
+  </si>
+  <si>
     <t>000015.SZ</t>
   </si>
   <si>
@@ -1368,19 +1392,7 @@
     <t>400011.OC</t>
   </si>
   <si>
-    <t>中浩A3</t>
-  </si>
-  <si>
-    <t>200015.SZ</t>
-  </si>
-  <si>
-    <t>PT中浩B(退市)</t>
-  </si>
-  <si>
-    <t>420011.OC</t>
-  </si>
-  <si>
-    <t>中浩B3</t>
+    <t>中浩A5</t>
   </si>
   <si>
     <t>000588.SZ</t>
@@ -1395,6 +1407,18 @@
     <t>粤金曼5</t>
   </si>
   <si>
+    <t>600625.SH</t>
+  </si>
+  <si>
+    <t>PT水仙(退市)</t>
+  </si>
+  <si>
+    <t>400008.OC</t>
+  </si>
+  <si>
+    <t>水仙A5</t>
+  </si>
+  <si>
     <t>900931.SH</t>
   </si>
   <si>
@@ -1405,18 +1429,6 @@
   </si>
   <si>
     <t>水仙B5</t>
-  </si>
-  <si>
-    <t>600625.SH</t>
-  </si>
-  <si>
-    <t>PT水仙(退市)</t>
-  </si>
-  <si>
-    <t>400008.OC</t>
-  </si>
-  <si>
-    <t>水仙A5</t>
   </si>
   <si>
     <t>000508.SZ</t>
@@ -1831,7 +1843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:N144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
@@ -1902,13 +1914,13 @@
         <v>15</v>
       </c>
       <c r="C2" s="9">
-        <v>42368</v>
+        <v>42493</v>
       </c>
       <c r="D2" s="10">
-        <v>40.5</v>
+        <v>10.55</v>
       </c>
       <c r="E2" s="10">
-        <v>12.7608</v>
+        <v>2.27</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>16</v>
@@ -1917,40 +1929,36 @@
         <v>17</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="9">
-        <v>42368</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="9">
-        <v>42349</v>
-      </c>
-      <c r="D3" s="10">
-        <v>35.299999999999997</v>
-      </c>
+        <v>42489</v>
+      </c>
+      <c r="D3" s="10"/>
       <c r="E3" s="10">
-        <v>12.7608</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>16</v>
@@ -1959,101 +1967,105 @@
         <v>17</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="9">
-        <v>42368</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9">
-        <v>42345</v>
+        <v>42368</v>
       </c>
       <c r="D4" s="10">
-        <v>1.45</v>
+        <v>40.5</v>
       </c>
       <c r="E4" s="10">
-        <v>1.28</v>
+        <v>12.7608</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="I4" s="9">
+        <v>42368</v>
+      </c>
       <c r="J4" s="9"/>
       <c r="K4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="C5" s="9">
-        <v>42340</v>
-      </c>
-      <c r="D5" s="10"/>
+        <v>42349</v>
+      </c>
+      <c r="D5" s="10">
+        <v>35.299999999999997</v>
+      </c>
       <c r="E5" s="10">
-        <v>3.04</v>
+        <v>12.7608</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="I5" s="9">
+        <v>42368</v>
+      </c>
       <c r="J5" s="9"/>
       <c r="K5" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2064,196 +2076,198 @@
         <v>30</v>
       </c>
       <c r="C6" s="9">
-        <v>42331</v>
+        <v>42345</v>
       </c>
       <c r="D6" s="10">
-        <v>2.2160000000000002</v>
+        <v>1.45</v>
       </c>
       <c r="E6" s="10">
-        <v>5.3323999999999998</v>
+        <v>1.28</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9">
-        <v>42342</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9">
-        <v>42311</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5.62</v>
-      </c>
+        <v>42340</v>
+      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9">
-        <v>42310</v>
+        <v>42331</v>
       </c>
       <c r="D8" s="10">
-        <v>45.72</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="E8" s="10">
-        <v>3.9355000000000002</v>
+        <v>5.3323999999999998</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I8" s="9">
-        <v>42310</v>
+        <v>42342</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="9">
-        <v>42277</v>
-      </c>
-      <c r="D9" s="10"/>
+        <v>42311</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5.62</v>
+      </c>
       <c r="E9" s="10">
-        <v>2.0099999999999998</v>
+        <v>3.2</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="9">
+        <v>42310</v>
+      </c>
+      <c r="D10" s="10">
+        <v>45.72</v>
+      </c>
+      <c r="E10" s="10">
+        <v>3.9355000000000002</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="9">
-        <v>42243</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
-        <v>3.66</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="9">
+        <v>42310</v>
+      </c>
       <c r="J10" s="9"/>
       <c r="K10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2264,158 +2278,156 @@
         <v>45</v>
       </c>
       <c r="C11" s="9">
-        <v>42198</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1.29</v>
-      </c>
+        <v>42277</v>
+      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10">
-        <v>1.7337</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="9">
-        <v>42263</v>
-      </c>
+      <c r="J11" s="9"/>
       <c r="K11" s="8" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" s="9">
-        <v>42198</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2.0499999999999998</v>
-      </c>
+        <v>42243</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="E12" s="10">
-        <v>-4.8624999999999998</v>
+        <v>3.66</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="9">
-        <v>42263</v>
-      </c>
+      <c r="J12" s="9"/>
       <c r="K12" s="8" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9">
-        <v>42165</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>42198</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2.0499999999999998</v>
+      </c>
       <c r="E13" s="10">
-        <v>1.02</v>
+        <v>-4.8624999999999998</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="J13" s="9">
+        <v>42263</v>
+      </c>
       <c r="K13" s="8" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="9">
+        <v>42198</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1.7337</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9">
+        <v>42263</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="9">
-        <v>42156</v>
-      </c>
-      <c r="D14" s="10">
-        <v>6.6</v>
-      </c>
-      <c r="E14" s="10">
-        <v>4.7256</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="M14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2426,200 +2438,200 @@
         <v>58</v>
       </c>
       <c r="C15" s="9">
-        <v>42145</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2.35</v>
-      </c>
+        <v>42165</v>
+      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10">
-        <v>-2.7793000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="9">
-        <v>42205</v>
-      </c>
+      <c r="J15" s="9"/>
       <c r="K15" s="8" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="9">
-        <v>42144</v>
+        <v>42156</v>
       </c>
       <c r="D16" s="10">
-        <v>23.18</v>
+        <v>6.6</v>
       </c>
       <c r="E16" s="10">
-        <v>3.1360999999999999</v>
+        <v>4.7256</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I16" s="9">
-        <v>42158</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C17" s="9">
-        <v>42144</v>
+        <v>42145</v>
       </c>
       <c r="D17" s="10">
-        <v>29.98</v>
+        <v>2.35</v>
       </c>
       <c r="E17" s="10">
-        <v>4.0637999999999996</v>
+        <v>-2.7793000000000001</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="9">
-        <v>42159</v>
-      </c>
-      <c r="J17" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9">
+        <v>42205</v>
+      </c>
       <c r="K17" s="8" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9">
-        <v>42123</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>42144</v>
+      </c>
+      <c r="D18" s="10">
+        <v>29.98</v>
+      </c>
       <c r="E18" s="10">
-        <v>1.03</v>
+        <v>4.0637999999999996</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="I18" s="9">
+        <v>42159</v>
+      </c>
       <c r="J18" s="9"/>
       <c r="K18" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="9">
+        <v>42144</v>
+      </c>
+      <c r="D19" s="10">
+        <v>23.18</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3.1360999999999999</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="9">
-        <v>42116</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="E19" s="10">
-        <v>5.91</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="9">
+        <v>42158</v>
+      </c>
       <c r="J19" s="9"/>
       <c r="K19" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2630,34 +2642,34 @@
         <v>74</v>
       </c>
       <c r="C20" s="9">
-        <v>42114</v>
-      </c>
-      <c r="D20" s="10">
-        <v>8.73</v>
-      </c>
-      <c r="E20" s="10"/>
+        <v>42123</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10">
+        <v>1.03</v>
+      </c>
       <c r="F20" s="8" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2668,36 +2680,36 @@
         <v>76</v>
       </c>
       <c r="C21" s="9">
-        <v>42090</v>
+        <v>42116</v>
       </c>
       <c r="D21" s="10">
-        <v>2.52</v>
+        <v>0.6</v>
       </c>
       <c r="E21" s="10">
-        <v>2.42</v>
+        <v>5.91</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2708,34 +2720,34 @@
         <v>78</v>
       </c>
       <c r="C22" s="9">
-        <v>42052</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10">
-        <v>2.0699999999999998</v>
-      </c>
+        <v>42114</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8.73</v>
+      </c>
+      <c r="E22" s="10"/>
       <c r="F22" s="8" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2746,116 +2758,116 @@
         <v>80</v>
       </c>
       <c r="C23" s="9">
-        <v>42030</v>
+        <v>42090</v>
       </c>
       <c r="D23" s="10">
-        <v>30.5</v>
+        <v>2.52</v>
       </c>
       <c r="E23" s="10">
-        <v>3.9769999999999999</v>
+        <v>2.42</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="9">
-        <v>42030</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C24" s="9">
-        <v>42020</v>
+        <v>42052</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10">
-        <v>1.76</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="9">
+        <v>42030</v>
+      </c>
+      <c r="D25" s="10">
+        <v>30.5</v>
+      </c>
+      <c r="E25" s="10">
+        <v>3.9769999999999999</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="9">
-        <v>42004</v>
-      </c>
-      <c r="D25" s="10">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>2.48</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="9"/>
+      <c r="I25" s="9">
+        <v>42030</v>
+      </c>
       <c r="J25" s="9"/>
       <c r="K25" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2866,36 +2878,34 @@
         <v>88</v>
       </c>
       <c r="C26" s="9">
-        <v>41969</v>
-      </c>
-      <c r="D26" s="10">
-        <v>5.83</v>
-      </c>
+        <v>42020</v>
+      </c>
+      <c r="D26" s="10"/>
       <c r="E26" s="10">
-        <v>4.3099999999999996</v>
+        <v>1.76</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -2906,34 +2916,36 @@
         <v>90</v>
       </c>
       <c r="C27" s="9">
-        <v>41969</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>42004</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
       <c r="E27" s="10">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -2944,36 +2956,34 @@
         <v>92</v>
       </c>
       <c r="C28" s="9">
-        <v>41955</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2.1800000000000002</v>
-      </c>
+        <v>41969</v>
+      </c>
+      <c r="D28" s="10"/>
       <c r="E28" s="10">
-        <v>1.55</v>
+        <v>2.58</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2984,34 +2994,36 @@
         <v>94</v>
       </c>
       <c r="C29" s="9">
-        <v>41953</v>
-      </c>
-      <c r="D29" s="10"/>
+        <v>41969</v>
+      </c>
+      <c r="D29" s="10">
+        <v>5.83</v>
+      </c>
       <c r="E29" s="10">
-        <v>3.71</v>
+        <v>4.3099999999999996</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M29" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N29" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3022,34 +3034,36 @@
         <v>96</v>
       </c>
       <c r="C30" s="9">
-        <v>41942</v>
-      </c>
-      <c r="D30" s="10"/>
+        <v>41955</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="E30" s="10">
-        <v>4.75</v>
+        <v>1.55</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3060,36 +3074,34 @@
         <v>98</v>
       </c>
       <c r="C31" s="9">
-        <v>41934</v>
-      </c>
-      <c r="D31" s="10">
-        <v>4.5</v>
-      </c>
+        <v>41953</v>
+      </c>
+      <c r="D31" s="10"/>
       <c r="E31" s="10">
-        <v>1.71</v>
+        <v>3.71</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M31" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N31" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3100,34 +3112,34 @@
         <v>100</v>
       </c>
       <c r="C32" s="9">
-        <v>41887</v>
+        <v>41942</v>
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10">
-        <v>1.07</v>
+        <v>4.75</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3138,34 +3150,36 @@
         <v>102</v>
       </c>
       <c r="C33" s="9">
-        <v>41880</v>
-      </c>
-      <c r="D33" s="10"/>
+        <v>41934</v>
+      </c>
+      <c r="D33" s="10">
+        <v>4.5</v>
+      </c>
       <c r="E33" s="10">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M33" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3176,34 +3190,34 @@
         <v>104</v>
       </c>
       <c r="C34" s="9">
-        <v>41873</v>
+        <v>41887</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10">
-        <v>1.49</v>
+        <v>1.07</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3214,36 +3228,34 @@
         <v>106</v>
       </c>
       <c r="C35" s="9">
-        <v>41871</v>
-      </c>
-      <c r="D35" s="10">
-        <v>1</v>
-      </c>
+        <v>41880</v>
+      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="10">
-        <v>2.4500000000000002</v>
+        <v>1.03</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3254,34 +3266,34 @@
         <v>108</v>
       </c>
       <c r="C36" s="9">
-        <v>41831</v>
+        <v>41873</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3292,36 +3304,36 @@
         <v>110</v>
       </c>
       <c r="C37" s="9">
-        <v>41820</v>
+        <v>41871</v>
       </c>
       <c r="D37" s="10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E37" s="10">
-        <v>1.97</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3332,36 +3344,34 @@
         <v>112</v>
       </c>
       <c r="C38" s="9">
-        <v>41809</v>
-      </c>
-      <c r="D38" s="10">
-        <v>12.41</v>
-      </c>
+        <v>41831</v>
+      </c>
+      <c r="D38" s="10"/>
       <c r="E38" s="10">
-        <v>6.68</v>
+        <v>1.79</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M38" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3372,116 +3382,118 @@
         <v>114</v>
       </c>
       <c r="C39" s="9">
-        <v>41795</v>
+        <v>41820</v>
       </c>
       <c r="D39" s="10">
-        <v>0.83</v>
+        <v>7</v>
       </c>
       <c r="E39" s="10">
-        <v>-0.7026</v>
+        <v>1.97</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="9">
-        <v>41857</v>
-      </c>
+      <c r="J39" s="9"/>
       <c r="K39" s="8" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N39" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C40" s="9">
-        <v>41785</v>
-      </c>
-      <c r="D40" s="10"/>
+        <v>41809</v>
+      </c>
+      <c r="D40" s="10">
+        <v>12.41</v>
+      </c>
       <c r="E40" s="10">
-        <v>1.96</v>
+        <v>6.68</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="9">
+        <v>41795</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="E41" s="10">
+        <v>-0.7026</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9">
+        <v>41857</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="L41" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="9">
-        <v>41778</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="E41" s="10">
-        <v>0.99</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="M41" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3492,36 +3504,34 @@
         <v>123</v>
       </c>
       <c r="C42" s="9">
-        <v>41649</v>
-      </c>
-      <c r="D42" s="10">
-        <v>37.92</v>
-      </c>
+        <v>41785</v>
+      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10">
-        <v>11.31</v>
+        <v>1.96</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3532,36 +3542,36 @@
         <v>125</v>
       </c>
       <c r="C43" s="9">
-        <v>41648</v>
+        <v>41778</v>
       </c>
       <c r="D43" s="10">
-        <v>12.1</v>
+        <v>0.8</v>
       </c>
       <c r="E43" s="10">
-        <v>5.585</v>
+        <v>0.99</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N43" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3572,368 +3582,368 @@
         <v>127</v>
       </c>
       <c r="C44" s="9">
-        <v>41585</v>
+        <v>41649</v>
       </c>
       <c r="D44" s="10">
-        <v>0.82499999999999996</v>
+        <v>37.92</v>
       </c>
       <c r="E44" s="10">
-        <v>5.1473000000000004</v>
+        <v>11.31</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I44" s="9">
-        <v>41627</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N44" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C45" s="9">
-        <v>41535</v>
+        <v>41648</v>
       </c>
       <c r="D45" s="10">
-        <v>14.02</v>
+        <v>12.1</v>
       </c>
       <c r="E45" s="10">
-        <v>6.6684999999999999</v>
+        <v>5.585</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I45" s="9">
-        <v>41535</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M45" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C46" s="9">
-        <v>41500</v>
+        <v>41585</v>
       </c>
       <c r="D46" s="10">
-        <v>13.41</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E46" s="10">
-        <v>3.5977000000000001</v>
+        <v>5.1473000000000004</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I46" s="9"/>
+        <v>133</v>
+      </c>
+      <c r="I46" s="9">
+        <v>41627</v>
+      </c>
       <c r="J46" s="9"/>
       <c r="K46" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N46" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C47" s="9">
-        <v>41470</v>
+        <v>41535</v>
       </c>
       <c r="D47" s="10">
-        <v>6.26</v>
+        <v>14.02</v>
       </c>
       <c r="E47" s="10">
-        <v>2.12</v>
+        <v>6.6684999999999999</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9">
-        <v>41487</v>
+        <v>41535</v>
       </c>
       <c r="J47" s="9"/>
       <c r="K47" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N47" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C48" s="9">
-        <v>41390</v>
+        <v>41500</v>
       </c>
       <c r="D48" s="10">
-        <v>23.27</v>
+        <v>13.41</v>
       </c>
       <c r="E48" s="10">
-        <v>3.5533000000000001</v>
+        <v>3.5977000000000001</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I48" s="9">
-        <v>41417</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M48" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N48" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C49" s="9">
-        <v>41360</v>
+        <v>41470</v>
       </c>
       <c r="D49" s="10">
-        <v>1.88</v>
+        <v>6.26</v>
       </c>
       <c r="E49" s="10">
-        <v>0.23649999999999999</v>
+        <v>2.12</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9">
-        <v>41429</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="I49" s="9">
+        <v>41487</v>
+      </c>
+      <c r="J49" s="9"/>
       <c r="K49" s="8" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C50" s="9">
-        <v>41313</v>
+        <v>41390</v>
       </c>
       <c r="D50" s="10">
-        <v>4.68</v>
+        <v>23.27</v>
       </c>
       <c r="E50" s="10">
-        <v>3.8899999999999997E-2</v>
+        <v>3.5533000000000001</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9">
-        <v>41386</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I50" s="9">
+        <v>41417</v>
+      </c>
+      <c r="J50" s="9"/>
       <c r="K50" s="8" t="s">
-        <v>151</v>
+        <v>17</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>152</v>
+        <v>17</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N50" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C51" s="9">
-        <v>41257</v>
+        <v>41360</v>
       </c>
       <c r="D51" s="10">
-        <v>9.6999999999999993</v>
+        <v>1.88</v>
       </c>
       <c r="E51" s="10">
-        <v>7.1643999999999997</v>
+        <v>0.23649999999999999</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
+      <c r="J51" s="9">
+        <v>41429</v>
+      </c>
       <c r="K51" s="8" t="s">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="M51" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N51" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="9">
+        <v>41313</v>
+      </c>
+      <c r="D52" s="10">
+        <v>4.68</v>
+      </c>
+      <c r="E52" s="10">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9">
+        <v>41386</v>
+      </c>
+      <c r="K52" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="L52" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="9">
-        <v>41150</v>
-      </c>
-      <c r="D52" s="10">
-        <v>13</v>
-      </c>
-      <c r="E52" s="10">
-        <v>2.93</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="M52" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N52" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3944,34 +3954,36 @@
         <v>158</v>
       </c>
       <c r="C53" s="9">
-        <v>41039</v>
+        <v>41257</v>
       </c>
       <c r="D53" s="10">
-        <v>7</v>
-      </c>
-      <c r="E53" s="10"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E53" s="10">
+        <v>7.1643999999999997</v>
+      </c>
       <c r="F53" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M53" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N53" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3982,472 +3994,466 @@
         <v>160</v>
       </c>
       <c r="C54" s="9">
-        <v>40988</v>
+        <v>41150</v>
       </c>
       <c r="D54" s="10">
-        <v>17.82</v>
+        <v>13</v>
       </c>
       <c r="E54" s="10">
-        <v>4.47</v>
+        <v>2.93</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>161</v>
+        <v>17</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I54" s="9">
-        <v>40997</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M54" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N54" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C55" s="9">
-        <v>40969</v>
+        <v>41039</v>
       </c>
       <c r="D55" s="10">
-        <v>16.43</v>
-      </c>
-      <c r="E55" s="10">
-        <v>5.27</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E55" s="10"/>
       <c r="F55" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>165</v>
+        <v>17</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="I55" s="9">
-        <v>40977</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M55" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N55" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C56" s="9">
-        <v>40967</v>
+        <v>40988</v>
       </c>
       <c r="D56" s="10">
-        <v>7.13</v>
+        <v>17.82</v>
       </c>
       <c r="E56" s="10">
-        <v>6.7</v>
+        <v>4.47</v>
       </c>
       <c r="F56" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9">
-        <v>40976</v>
+        <v>40997</v>
       </c>
       <c r="J56" s="9"/>
       <c r="K56" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N56" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C57" s="9">
-        <v>40814</v>
+        <v>40969</v>
       </c>
       <c r="D57" s="10">
-        <v>11</v>
+        <v>16.43</v>
       </c>
       <c r="E57" s="10">
-        <v>5.52</v>
+        <v>5.27</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="I57" s="9">
+        <v>40977</v>
+      </c>
       <c r="J57" s="9"/>
       <c r="K57" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N57" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C58" s="9">
-        <v>40778</v>
+        <v>40967</v>
       </c>
       <c r="D58" s="10">
-        <v>15.68</v>
+        <v>7.13</v>
       </c>
       <c r="E58" s="10">
-        <v>6.11</v>
+        <v>6.7</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9">
-        <v>40786</v>
+        <v>40976</v>
       </c>
       <c r="J58" s="9"/>
       <c r="K58" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M58" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N58" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C59" s="9">
-        <v>40653</v>
+        <v>40814</v>
       </c>
       <c r="D59" s="10">
-        <v>9.8000000000000007</v>
+        <v>11</v>
       </c>
       <c r="E59" s="10">
-        <v>3.46</v>
+        <v>5.52</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M59" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C60" s="9">
-        <v>40624</v>
+        <v>40778</v>
       </c>
       <c r="D60" s="10">
-        <v>24.44</v>
+        <v>15.68</v>
       </c>
       <c r="E60" s="10">
-        <v>2.9222999999999999</v>
+        <v>6.11</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9">
-        <v>40630</v>
+        <v>40786</v>
       </c>
       <c r="J60" s="9"/>
       <c r="K60" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M60" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N60" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C61" s="9">
-        <v>40592</v>
+        <v>40653</v>
       </c>
       <c r="D61" s="10">
-        <v>14.98</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E61" s="10">
-        <v>2.4900000000000002</v>
+        <v>3.46</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>185</v>
+        <v>17</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="I61" s="9">
-        <v>40603</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C62" s="9">
-        <v>40518</v>
+        <v>40624</v>
       </c>
       <c r="D62" s="10">
-        <v>9.99</v>
+        <v>24.44</v>
       </c>
       <c r="E62" s="10">
-        <v>2.5099999999999998</v>
+        <v>2.9222999999999999</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="9"/>
+        <v>186</v>
+      </c>
+      <c r="I62" s="9">
+        <v>40630</v>
+      </c>
       <c r="J62" s="9"/>
       <c r="K62" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="9">
+        <v>40592</v>
+      </c>
+      <c r="D63" s="10">
+        <v>14.98</v>
+      </c>
+      <c r="E63" s="10">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="H63" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C63" s="9">
-        <v>40235</v>
-      </c>
-      <c r="D63" s="10">
-        <v>3.87</v>
-      </c>
-      <c r="E63" s="10">
-        <v>3.11</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H63" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="I63" s="9">
-        <v>40256</v>
+        <v>40603</v>
       </c>
       <c r="J63" s="9"/>
       <c r="K63" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M63" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C64" s="9">
-        <v>40221</v>
+        <v>40518</v>
       </c>
       <c r="D64" s="10">
-        <v>13.96</v>
+        <v>9.99</v>
       </c>
       <c r="E64" s="10">
-        <v>1.712</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I64" s="9">
-        <v>40246</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C65" s="9">
-        <v>40221</v>
+        <v>40235</v>
       </c>
       <c r="D65" s="10">
-        <v>23.52</v>
+        <v>3.87</v>
       </c>
       <c r="E65" s="10">
-        <v>6.2826000000000004</v>
+        <v>3.11</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>196</v>
@@ -4456,121 +4462,121 @@
         <v>197</v>
       </c>
       <c r="I65" s="9">
-        <v>40246</v>
+        <v>40256</v>
       </c>
       <c r="J65" s="9"/>
       <c r="K65" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M65" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C66" s="9">
-        <v>40203</v>
+        <v>40221</v>
       </c>
       <c r="D66" s="10">
-        <v>7.27</v>
+        <v>23.52</v>
       </c>
       <c r="E66" s="10">
-        <v>0.83599999999999997</v>
+        <v>6.2826000000000004</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9">
-        <v>40211</v>
+        <v>40246</v>
       </c>
       <c r="J66" s="9"/>
       <c r="K66" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M66" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N66" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C67" s="9">
-        <v>40176</v>
+        <v>40221</v>
       </c>
       <c r="D67" s="10">
-        <v>7.4</v>
+        <v>13.96</v>
       </c>
       <c r="E67" s="10">
-        <v>3.55</v>
+        <v>1.712</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9">
-        <v>40203</v>
+        <v>40246</v>
       </c>
       <c r="J67" s="9"/>
       <c r="K67" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M67" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N67" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C68" s="9">
-        <v>40176</v>
+        <v>40203</v>
       </c>
       <c r="D68" s="10">
-        <v>5.29</v>
+        <v>7.27</v>
       </c>
       <c r="E68" s="10">
-        <v>4.41</v>
+        <v>0.83599999999999997</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>16</v>
@@ -4582,728 +4588,728 @@
         <v>207</v>
       </c>
       <c r="I68" s="9">
-        <v>40203</v>
+        <v>40211</v>
       </c>
       <c r="J68" s="9"/>
       <c r="K68" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M68" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N68" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="9">
+        <v>40176</v>
+      </c>
+      <c r="D69" s="10">
+        <v>5.29</v>
+      </c>
+      <c r="E69" s="10">
+        <v>4.41</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="H69" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C69" s="9">
-        <v>40151</v>
-      </c>
-      <c r="D69" s="10">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E69" s="10">
-        <v>-6.45</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9">
-        <v>40214</v>
-      </c>
+      <c r="I69" s="9">
+        <v>40203</v>
+      </c>
+      <c r="J69" s="9"/>
       <c r="K69" s="8" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>214</v>
+        <v>17</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C70" s="9">
-        <v>40086</v>
+        <v>40176</v>
       </c>
       <c r="D70" s="10">
-        <v>5.5</v>
+        <v>7.4</v>
       </c>
       <c r="E70" s="10">
-        <v>2.83</v>
+        <v>3.55</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I70" s="9"/>
+        <v>211</v>
+      </c>
+      <c r="I70" s="9">
+        <v>40203</v>
+      </c>
       <c r="J70" s="9"/>
       <c r="K70" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N70" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="9">
+        <v>40151</v>
+      </c>
+      <c r="D71" s="10">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E71" s="10">
+        <v>-6.45</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9">
+        <v>40214</v>
+      </c>
+      <c r="K71" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="L71" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="9">
-        <v>40052</v>
-      </c>
-      <c r="D71" s="10">
-        <v>23.8</v>
-      </c>
-      <c r="E71" s="10">
-        <v>2.8</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="I71" s="9">
-        <v>40060</v>
-      </c>
-      <c r="J71" s="9"/>
-      <c r="K71" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="M71" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N71" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C72" s="9">
-        <v>40023</v>
+        <v>40086</v>
       </c>
       <c r="D72" s="10">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="E72" s="10">
-        <v>4</v>
+        <v>2.83</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N72" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C73" s="9">
-        <v>39939</v>
+        <v>40052</v>
       </c>
       <c r="D73" s="10">
-        <v>15.29</v>
+        <v>23.8</v>
       </c>
       <c r="E73" s="10">
-        <v>1.34</v>
+        <v>2.8</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I73" s="9">
-        <v>39939</v>
+        <v>40060</v>
       </c>
       <c r="J73" s="9"/>
       <c r="K73" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C74" s="9">
-        <v>39939</v>
+        <v>40023</v>
       </c>
       <c r="D74" s="10">
-        <v>7.05</v>
+        <v>15</v>
       </c>
       <c r="E74" s="10">
-        <v>4.5999999999999999E-2</v>
+        <v>4</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="I74" s="9">
-        <v>39939</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N74" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C75" s="9">
-        <v>39778</v>
+        <v>39939</v>
       </c>
       <c r="D75" s="10">
-        <v>28.73</v>
+        <v>15.29</v>
       </c>
       <c r="E75" s="10">
-        <v>5.4</v>
+        <v>1.34</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I75" s="9">
-        <v>39787</v>
+        <v>39939</v>
       </c>
       <c r="J75" s="9"/>
       <c r="K75" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M75" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N75" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C76" s="9">
-        <v>39525</v>
+        <v>39939</v>
       </c>
       <c r="D76" s="10">
-        <v>82.2</v>
+        <v>7.05</v>
       </c>
       <c r="E76" s="10">
-        <v>6.44</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I76" s="9">
-        <v>39517</v>
+        <v>39939</v>
       </c>
       <c r="J76" s="9"/>
       <c r="K76" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N76" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="8" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C77" s="9">
-        <v>39442</v>
+        <v>39778</v>
       </c>
       <c r="D77" s="10">
-        <v>51.82</v>
+        <v>28.73</v>
       </c>
       <c r="E77" s="10">
-        <v>4.9747000000000003</v>
+        <v>5.4</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I77" s="9">
-        <v>39451</v>
+        <v>39787</v>
       </c>
       <c r="J77" s="9"/>
       <c r="K77" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N77" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="8" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C78" s="9">
-        <v>39429</v>
+        <v>39525</v>
       </c>
       <c r="D78" s="10">
-        <v>1.7</v>
+        <v>82.2</v>
       </c>
       <c r="E78" s="10">
-        <v>0.61329999999999996</v>
+        <v>6.44</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>19</v>
+        <v>239</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9">
-        <v>39566</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="I78" s="9">
+        <v>39517</v>
+      </c>
+      <c r="J78" s="9"/>
       <c r="K78" s="8" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>244</v>
+        <v>17</v>
       </c>
       <c r="M78" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N78" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C79" s="9">
-        <v>39406</v>
+        <v>39442</v>
       </c>
       <c r="D79" s="10">
-        <v>0.77</v>
+        <v>51.82</v>
       </c>
       <c r="E79" s="10">
-        <v>-3.43</v>
+        <v>4.9747000000000003</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9">
-        <v>39470</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="I79" s="9">
+        <v>39451</v>
+      </c>
+      <c r="J79" s="9"/>
       <c r="K79" s="8" t="s">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="M79" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N79" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="8" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C80" s="9">
-        <v>39321</v>
+        <v>39429</v>
       </c>
       <c r="D80" s="10">
-        <v>20.9</v>
+        <v>1.7</v>
       </c>
       <c r="E80" s="10">
-        <v>3.99</v>
+        <v>0.61329999999999996</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
+      <c r="J80" s="9">
+        <v>39566</v>
+      </c>
       <c r="K80" s="8" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>19</v>
+        <v>248</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N80" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C81" s="9">
+        <v>39406</v>
+      </c>
+      <c r="D81" s="10">
+        <v>0.77</v>
+      </c>
+      <c r="E81" s="10">
+        <v>-3.43</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9">
+        <v>39470</v>
+      </c>
+      <c r="K81" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="L81" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C81" s="9">
-        <v>39234</v>
-      </c>
-      <c r="D81" s="10">
-        <v>1.02</v>
-      </c>
-      <c r="E81" s="10">
-        <v>-0.67</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H81" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I81" s="9">
-        <v>39444</v>
-      </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="M81" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N81" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C82" s="9">
-        <v>39233</v>
+        <v>39321</v>
       </c>
       <c r="D82" s="10">
-        <v>0.67</v>
+        <v>20.9</v>
       </c>
       <c r="E82" s="10">
-        <v>-4.2</v>
+        <v>3.99</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>115</v>
+        <v>39</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I82" s="9"/>
-      <c r="J82" s="9">
-        <v>39297</v>
-      </c>
+      <c r="J82" s="9"/>
       <c r="K82" s="8" t="s">
-        <v>257</v>
+        <v>17</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="M82" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N82" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="8" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C83" s="9">
-        <v>39223</v>
+        <v>39234</v>
       </c>
       <c r="D83" s="10">
-        <v>0.76</v>
+        <v>1.02</v>
       </c>
       <c r="E83" s="10">
-        <v>-6.08</v>
+        <v>-0.67</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>19</v>
+        <v>257</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9">
-        <v>39286</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="I83" s="9">
+        <v>39444</v>
+      </c>
+      <c r="J83" s="9"/>
       <c r="K83" s="8" t="s">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>262</v>
+        <v>17</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N83" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="8" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C84" s="9">
-        <v>39202</v>
+        <v>39233</v>
       </c>
       <c r="D84" s="10">
-        <v>25.41</v>
+        <v>0.67</v>
       </c>
       <c r="E84" s="10">
-        <v>6.03</v>
+        <v>-4.2</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="I84" s="9">
-        <v>39202</v>
-      </c>
-      <c r="J84" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9">
+        <v>39297</v>
+      </c>
       <c r="K84" s="8" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
       <c r="M84" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="9">
+        <v>39223</v>
+      </c>
+      <c r="D85" s="10">
+        <v>0.76</v>
+      </c>
+      <c r="E85" s="10">
+        <v>-6.08</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9">
+        <v>39286</v>
+      </c>
+      <c r="K85" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="L85" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C85" s="9">
-        <v>39202</v>
-      </c>
-      <c r="D85" s="10">
-        <v>14.61</v>
-      </c>
-      <c r="E85" s="10">
-        <v>5.8520000000000003</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H85" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="I85" s="9">
-        <v>39202</v>
-      </c>
-      <c r="J85" s="9"/>
-      <c r="K85" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="M85" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N85" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -5314,326 +5320,330 @@
         <v>268</v>
       </c>
       <c r="C86" s="9">
-        <v>39199</v>
+        <v>39202</v>
       </c>
       <c r="D86" s="10">
-        <v>8.9</v>
+        <v>14.61</v>
       </c>
       <c r="E86" s="10">
-        <v>2.17</v>
+        <v>5.8520000000000003</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>16</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9">
         <v>39202</v>
       </c>
       <c r="J86" s="9"/>
       <c r="K86" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M86" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C87" s="9">
-        <v>39176</v>
+        <v>39202</v>
       </c>
       <c r="D87" s="10">
-        <v>0.81</v>
+        <v>25.41</v>
       </c>
       <c r="E87" s="10">
-        <v>-3.1355</v>
+        <v>6.03</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9">
-        <v>39246</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="I87" s="9">
+        <v>39202</v>
+      </c>
+      <c r="J87" s="9"/>
       <c r="K87" s="8" t="s">
-        <v>273</v>
+        <v>17</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="M87" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N87" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C88" s="9">
-        <v>39051</v>
+        <v>39199</v>
       </c>
       <c r="D88" s="10">
-        <v>1.3</v>
+        <v>8.9</v>
       </c>
       <c r="E88" s="10">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>19</v>
+        <v>273</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9">
-        <v>39122</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="I88" s="9">
+        <v>39202</v>
+      </c>
+      <c r="J88" s="9"/>
       <c r="K88" s="8" t="s">
-        <v>277</v>
+        <v>17</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>278</v>
+        <v>17</v>
       </c>
       <c r="M88" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C89" s="9">
-        <v>39051</v>
+        <v>39176</v>
       </c>
       <c r="D89" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="E89" s="10"/>
+        <v>0.81</v>
+      </c>
+      <c r="E89" s="10">
+        <v>-3.1355</v>
+      </c>
       <c r="F89" s="8" t="s">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9">
-        <v>39115</v>
+        <v>39246</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L89" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M89" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C90" s="9">
-        <v>39010</v>
+        <v>39051</v>
       </c>
       <c r="D90" s="10">
-        <v>16.37</v>
+        <v>1.3</v>
       </c>
       <c r="E90" s="10">
-        <v>4.0636999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="I90" s="9">
-        <v>39016</v>
-      </c>
-      <c r="J90" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9">
+        <v>39122</v>
+      </c>
       <c r="K90" s="8" t="s">
-        <v>19</v>
+        <v>281</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>19</v>
+        <v>282</v>
       </c>
       <c r="M90" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N90" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C91" s="9">
-        <v>38897</v>
+        <v>39051</v>
       </c>
       <c r="D91" s="10">
-        <v>1.45</v>
-      </c>
-      <c r="E91" s="10">
-        <v>-1.8569</v>
-      </c>
+        <v>0.96</v>
+      </c>
+      <c r="E91" s="10"/>
       <c r="F91" s="8" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9">
-        <v>39029</v>
+        <v>39115</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L91" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M91" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N91" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C92" s="9">
-        <v>38831</v>
+        <v>39010</v>
       </c>
       <c r="D92" s="10">
-        <v>10.09</v>
+        <v>16.37</v>
       </c>
       <c r="E92" s="10">
-        <v>3.92</v>
+        <v>4.0636999999999999</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92" s="9"/>
+        <v>290</v>
+      </c>
+      <c r="I92" s="9">
+        <v>39016</v>
+      </c>
       <c r="J92" s="9"/>
       <c r="K92" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L92" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M92" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N92" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C93" s="9">
+        <v>38897</v>
+      </c>
+      <c r="D93" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="E93" s="10">
+        <v>-1.8569</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9">
+        <v>39029</v>
+      </c>
+      <c r="K93" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="L93" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C93" s="9">
-        <v>38828</v>
-      </c>
-      <c r="D93" s="10">
-        <v>11.91</v>
-      </c>
-      <c r="E93" s="10">
-        <v>6.2534000000000001</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="M93" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -5644,36 +5654,36 @@
         <v>296</v>
       </c>
       <c r="C94" s="9">
-        <v>38828</v>
+        <v>38831</v>
       </c>
       <c r="D94" s="10">
-        <v>13.84</v>
+        <v>10.09</v>
       </c>
       <c r="E94" s="10">
-        <v>6.13</v>
+        <v>3.92</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M94" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -5693,27 +5703,27 @@
         <v>5.2</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M95" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -5724,118 +5734,118 @@
         <v>300</v>
       </c>
       <c r="C96" s="9">
-        <v>38799</v>
+        <v>38828</v>
       </c>
       <c r="D96" s="10">
-        <v>1.41</v>
+        <v>11.91</v>
       </c>
       <c r="E96" s="10">
-        <v>0.88</v>
+        <v>6.2534000000000001</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I96" s="9"/>
-      <c r="J96" s="9">
-        <v>38870</v>
-      </c>
+      <c r="J96" s="9"/>
       <c r="K96" s="8" t="s">
-        <v>301</v>
+        <v>17</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>302</v>
+        <v>17</v>
       </c>
       <c r="M96" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N96" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C97" s="9">
-        <v>38768</v>
+        <v>38828</v>
       </c>
       <c r="D97" s="10">
-        <v>5.24</v>
+        <v>13.84</v>
       </c>
       <c r="E97" s="10">
-        <v>1.6</v>
+        <v>6.13</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H97" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L97" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M97" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N97" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" s="9">
+        <v>38799</v>
+      </c>
+      <c r="D98" s="10">
+        <v>1.41</v>
+      </c>
+      <c r="E98" s="10">
+        <v>0.88</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9">
+        <v>38870</v>
+      </c>
+      <c r="K98" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="L98" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C98" s="9">
-        <v>38721</v>
-      </c>
-      <c r="D98" s="10">
-        <v>8.75</v>
-      </c>
-      <c r="E98" s="10">
-        <v>2.95</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-      <c r="K98" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="M98" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N98" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5846,36 +5856,36 @@
         <v>308</v>
       </c>
       <c r="C99" s="9">
-        <v>38721</v>
+        <v>38768</v>
       </c>
       <c r="D99" s="10">
-        <v>4.22</v>
+        <v>5.24</v>
       </c>
       <c r="E99" s="10">
-        <v>1.0069999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L99" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M99" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N99" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5889,1716 +5899,1796 @@
         <v>38721</v>
       </c>
       <c r="D100" s="10">
-        <v>0.54</v>
+        <v>4.22</v>
       </c>
       <c r="E100" s="10">
-        <v>-1.196</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I100" s="9"/>
-      <c r="J100" s="9">
-        <v>38933</v>
-      </c>
+      <c r="J100" s="9"/>
       <c r="K100" s="8" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
       <c r="L100" s="8" t="s">
-        <v>312</v>
+        <v>17</v>
       </c>
       <c r="M100" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N100" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C101" s="9">
-        <v>38617</v>
+        <v>38721</v>
       </c>
       <c r="D101" s="10">
-        <v>0.84</v>
+        <v>0.54</v>
       </c>
       <c r="E101" s="10">
-        <v>0.27</v>
+        <v>-1.196</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H101" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9">
-        <v>38685</v>
+        <v>38933</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M101" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N101" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C102" s="9">
-        <v>38616</v>
+        <v>38721</v>
       </c>
       <c r="D102" s="10">
-        <v>1.1299999999999999</v>
+        <v>8.75</v>
       </c>
       <c r="E102" s="10">
-        <v>-1.137</v>
+        <v>2.95</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H102" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
-      <c r="J102" s="9">
-        <v>38684</v>
-      </c>
+      <c r="J102" s="9"/>
       <c r="K102" s="8" t="s">
-        <v>319</v>
+        <v>17</v>
       </c>
       <c r="L102" s="8" t="s">
-        <v>320</v>
+        <v>17</v>
       </c>
       <c r="M102" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N102" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C103" s="9">
-        <v>38616</v>
+        <v>38617</v>
       </c>
       <c r="D103" s="10">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="E103" s="10">
-        <v>0.28699999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H103" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9">
-        <v>38684</v>
+        <v>38685</v>
       </c>
       <c r="K103" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L103" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M103" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N103" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C104" s="9">
         <v>38616</v>
       </c>
       <c r="D104" s="10">
-        <v>1.1599999999999999</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E104" s="10">
-        <v>0.189</v>
+        <v>-1.137</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9">
         <v>38684</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M104" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C105" s="9">
         <v>38616</v>
       </c>
       <c r="D105" s="10">
-        <v>0.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E105" s="10">
-        <v>-2.23</v>
+        <v>0.189</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9">
         <v>38684</v>
       </c>
       <c r="K105" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M105" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N105" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C106" s="9">
         <v>38616</v>
       </c>
       <c r="D106" s="10">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="E106" s="10">
-        <v>-1.21</v>
+        <v>-2.23</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9">
         <v>38684</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M106" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N106" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C107" s="9">
-        <v>38615</v>
+        <v>38616</v>
       </c>
       <c r="D107" s="10">
-        <v>0.64</v>
+        <v>0.27</v>
       </c>
       <c r="E107" s="10">
-        <v>-1.76</v>
+        <v>-1.21</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H107" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9">
-        <v>38681</v>
+        <v>38684</v>
       </c>
       <c r="K107" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L107" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N107" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C108" s="9">
-        <v>38611</v>
+        <v>38616</v>
       </c>
       <c r="D108" s="10">
-        <v>0.72</v>
+        <v>0.9</v>
       </c>
       <c r="E108" s="10">
-        <v>-3.18</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9">
-        <v>38679</v>
+        <v>38684</v>
       </c>
       <c r="K108" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N108" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C109" s="9">
-        <v>38569</v>
+        <v>38615</v>
       </c>
       <c r="D109" s="10">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="E109" s="10">
-        <v>-1.0900000000000001</v>
+        <v>-1.76</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9">
-        <v>38637</v>
+        <v>38681</v>
       </c>
       <c r="K109" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L109" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M109" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C110" s="9">
-        <v>38537</v>
+        <v>38611</v>
       </c>
       <c r="D110" s="10">
-        <v>2.36</v>
+        <v>0.72</v>
       </c>
       <c r="E110" s="10">
-        <v>-1.1499999999999999</v>
+        <v>-3.18</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H110" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9">
-        <v>38600</v>
+        <v>38679</v>
       </c>
       <c r="K110" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L110" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M110" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N110" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C111" s="9">
-        <v>38436</v>
+        <v>38569</v>
       </c>
       <c r="D111" s="10">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="E111" s="10">
-        <v>-3.07</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H111" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9">
-        <v>38506</v>
+        <v>38637</v>
       </c>
       <c r="K111" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L111" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M111" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N111" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C112" s="9">
-        <v>38309</v>
+        <v>38537</v>
       </c>
       <c r="D112" s="10">
-        <v>9.5299999999999994</v>
+        <v>2.36</v>
       </c>
       <c r="E112" s="10">
-        <v>4</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
       <c r="H112" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="I112" s="9">
-        <v>38317</v>
-      </c>
-      <c r="J112" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9">
+        <v>38600</v>
+      </c>
       <c r="K112" s="8" t="s">
-        <v>19</v>
+        <v>355</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
       <c r="M112" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N112" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C113" s="9">
-        <v>38257</v>
+        <v>38436</v>
       </c>
       <c r="D113" s="10">
-        <v>2.66</v>
+        <v>0.91</v>
       </c>
       <c r="E113" s="10">
-        <v>-1.42</v>
+        <v>-3.07</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H113" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9">
-        <v>38324</v>
+        <v>38506</v>
       </c>
       <c r="K113" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L113" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M113" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N113" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C114" s="9">
-        <v>38254</v>
+        <v>38309</v>
       </c>
       <c r="D114" s="10">
-        <v>2.87</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="E114" s="10">
-        <v>-0.88300000000000001</v>
+        <v>4</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
       <c r="H114" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9">
-        <v>38322</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="I114" s="9">
+        <v>38317</v>
+      </c>
+      <c r="J114" s="9"/>
       <c r="K114" s="8" t="s">
-        <v>365</v>
+        <v>17</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>366</v>
+        <v>17</v>
       </c>
       <c r="M114" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N114" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="8" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C115" s="9">
-        <v>38254</v>
+        <v>38257</v>
       </c>
       <c r="D115" s="10">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="E115" s="10">
-        <v>0.1045</v>
+        <v>-1.42</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H115" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9">
-        <v>38322</v>
+        <v>38324</v>
       </c>
       <c r="K115" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M115" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N115" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="8" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C116" s="9">
-        <v>38250</v>
+        <v>38254</v>
       </c>
       <c r="D116" s="10">
-        <v>1.47</v>
+        <v>2.6</v>
       </c>
       <c r="E116" s="10">
-        <v>-8.8000000000000007</v>
+        <v>0.1045</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9">
-        <v>38317</v>
+        <v>38322</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L116" s="8" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="M116" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N116" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C117" s="9">
-        <v>38250</v>
+        <v>38254</v>
       </c>
       <c r="D117" s="10">
-        <v>2.4700000000000002</v>
+        <v>2.87</v>
       </c>
       <c r="E117" s="10">
-        <v>-8.8000000000000007</v>
+        <v>-0.88300000000000001</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H117" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9">
-        <v>38317</v>
+        <v>38322</v>
       </c>
       <c r="K117" s="8" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L117" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="M117" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N117" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="8" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C118" s="9">
-        <v>38245</v>
+        <v>38250</v>
       </c>
       <c r="D118" s="10">
-        <v>2.64</v>
+        <v>1.47</v>
       </c>
       <c r="E118" s="10">
-        <v>-1.78</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H118" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9">
-        <v>38313</v>
+        <v>38317</v>
       </c>
       <c r="K118" s="8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M118" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N118" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="8" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C119" s="9">
-        <v>38245</v>
+        <v>38250</v>
       </c>
       <c r="D119" s="10">
-        <v>2.19</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E119" s="10">
-        <v>-2.2000000000000002</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9">
-        <v>38313</v>
+        <v>38317</v>
       </c>
       <c r="K119" s="8" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M119" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N119" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="8" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C120" s="9">
-        <v>38243</v>
+        <v>38245</v>
       </c>
       <c r="D120" s="10">
-        <v>2.38</v>
+        <v>2.64</v>
       </c>
       <c r="E120" s="10">
-        <v>-5.32</v>
+        <v>-1.78</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H120" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9">
-        <v>38310</v>
+        <v>38313</v>
       </c>
       <c r="K120" s="8" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M120" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N120" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="8" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C121" s="9">
-        <v>38065</v>
+        <v>38245</v>
       </c>
       <c r="D121" s="10">
-        <v>2.86</v>
+        <v>2.19</v>
       </c>
       <c r="E121" s="10">
-        <v>-0.31</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H121" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9">
-        <v>38133</v>
+        <v>38313</v>
       </c>
       <c r="K121" s="8" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M121" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="8" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C122" s="9">
-        <v>37999</v>
+        <v>38243</v>
       </c>
       <c r="D122" s="10">
-        <v>27.34</v>
+        <v>2.38</v>
       </c>
       <c r="E122" s="10">
-        <v>3.294</v>
+        <v>-5.32</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>397</v>
+        <v>17</v>
       </c>
       <c r="H122" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="I122" s="9">
-        <v>38016</v>
-      </c>
-      <c r="J122" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9">
+        <v>38310</v>
+      </c>
       <c r="K122" s="8" t="s">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="L122" s="8" t="s">
-        <v>19</v>
+        <v>394</v>
       </c>
       <c r="M122" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N122" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="8" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C123" s="9">
-        <v>37886</v>
+        <v>38065</v>
       </c>
       <c r="D123" s="10">
-        <v>5.82</v>
+        <v>2.86</v>
       </c>
       <c r="E123" s="10">
-        <v>-2.7431000000000001</v>
+        <v>-0.31</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H123" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9">
-        <v>38063</v>
+        <v>38133</v>
       </c>
       <c r="K123" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L123" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M123" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N123" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="8" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C124" s="9">
-        <v>37883</v>
+        <v>37999</v>
       </c>
       <c r="D124" s="10">
-        <v>2.89</v>
+        <v>27.34</v>
       </c>
       <c r="E124" s="10">
-        <v>-0.15970000000000001</v>
+        <v>3.294</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>19</v>
+        <v>401</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9">
-        <v>38133</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="I124" s="9">
+        <v>38016</v>
+      </c>
+      <c r="J124" s="9"/>
       <c r="K124" s="8" t="s">
-        <v>405</v>
+        <v>17</v>
       </c>
       <c r="L124" s="8" t="s">
-        <v>406</v>
+        <v>17</v>
       </c>
       <c r="M124" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N124" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C125" s="9">
-        <v>37771</v>
+        <v>37886</v>
       </c>
       <c r="D125" s="10">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="E125" s="10"/>
+        <v>5.82</v>
+      </c>
+      <c r="E125" s="10">
+        <v>-2.7431000000000001</v>
+      </c>
       <c r="F125" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H125" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9">
-        <v>38133</v>
+        <v>38063</v>
       </c>
       <c r="K125" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M125" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N125" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C126" s="9">
-        <v>37764</v>
+        <v>37883</v>
       </c>
       <c r="D126" s="10">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="E126" s="10">
-        <v>-0.22700000000000001</v>
+        <v>-0.15970000000000001</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H126" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9">
-        <v>38135</v>
+        <v>38133</v>
       </c>
       <c r="K126" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L126" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M126" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N126" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="8" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C127" s="9">
-        <v>37519</v>
+        <v>37771</v>
       </c>
       <c r="D127" s="10">
-        <v>4.24</v>
-      </c>
-      <c r="E127" s="10">
-        <v>-3.2160000000000002</v>
-      </c>
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="E127" s="10"/>
       <c r="F127" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H127" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9">
-        <v>38128</v>
+        <v>38133</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L127" s="8" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M127" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N127" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="8" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C128" s="9">
-        <v>37515</v>
+        <v>37764</v>
       </c>
       <c r="D128" s="10">
-        <v>3.83</v>
+        <v>3.02</v>
       </c>
       <c r="E128" s="10">
-        <v>-3.5019999999999998</v>
+        <v>-0.22700000000000001</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9">
-        <v>38133</v>
+        <v>38135</v>
       </c>
       <c r="K128" s="8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="M128" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N128" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C129" s="9">
-        <v>37512</v>
+        <v>37519</v>
       </c>
       <c r="D129" s="10">
-        <v>2.5099999999999998</v>
+        <v>4.24</v>
       </c>
       <c r="E129" s="10">
-        <v>-4.45</v>
+        <v>-3.2160000000000002</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9">
         <v>38128</v>
       </c>
       <c r="K129" s="8" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L129" s="8" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M129" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N129" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="8" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C130" s="9">
-        <v>37504</v>
+        <v>37515</v>
       </c>
       <c r="D130" s="10">
-        <v>4.88</v>
+        <v>3.83</v>
       </c>
       <c r="E130" s="10">
-        <v>-4.1539999999999999</v>
+        <v>-3.5019999999999998</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H130" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9">
-        <v>38135</v>
+        <v>38133</v>
       </c>
       <c r="K130" s="8" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M130" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N130" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C131" s="9">
-        <v>37488</v>
+        <v>37512</v>
       </c>
       <c r="D131" s="10">
-        <v>7.94</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="E131" s="10">
-        <v>-1.54</v>
+        <v>-4.45</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H131" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9">
-        <v>38119</v>
+        <v>38128</v>
       </c>
       <c r="K131" s="8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L131" s="8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M131" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N131" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C132" s="9">
-        <v>37421</v>
+        <v>37504</v>
       </c>
       <c r="D132" s="10">
-        <v>1.6</v>
+        <v>4.88</v>
       </c>
       <c r="E132" s="10">
-        <v>-2.9935</v>
+        <v>-4.1539999999999999</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H132" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9">
-        <v>38002</v>
+        <v>38135</v>
       </c>
       <c r="K132" s="8" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="M132" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N132" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="8" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C133" s="9">
-        <v>37421</v>
+        <v>37488</v>
       </c>
       <c r="D133" s="10">
-        <v>2.71</v>
+        <v>7.94</v>
       </c>
       <c r="E133" s="10">
-        <v>-2.9935</v>
+        <v>-1.54</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G133" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H133" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9">
-        <v>38002</v>
+        <v>38119</v>
       </c>
       <c r="K133" s="8" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="M133" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N133" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="8" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C134" s="9">
-        <v>37405</v>
+        <v>37421</v>
       </c>
       <c r="D134" s="10">
-        <v>1.5</v>
+        <v>2.71</v>
       </c>
       <c r="E134" s="10">
-        <v>0.72619999999999996</v>
+        <v>-2.9935</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G134" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H134" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9">
-        <v>38135</v>
+        <v>38002</v>
       </c>
       <c r="K134" s="8" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="8" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C135" s="9">
-        <v>37186</v>
+        <v>37421</v>
       </c>
       <c r="D135" s="10">
-        <v>6.85</v>
+        <v>1.6</v>
       </c>
       <c r="E135" s="10">
-        <v>-6.5</v>
+        <v>-2.9935</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H135" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9">
-        <v>37554</v>
+        <v>38002</v>
       </c>
       <c r="K135" s="8" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M135" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N135" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="8" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C136" s="9">
-        <v>37186</v>
+        <v>37405</v>
       </c>
       <c r="D136" s="10">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="E136" s="10">
-        <v>-6.5</v>
+        <v>0.72619999999999996</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H136" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9">
-        <v>37554</v>
+        <v>38135</v>
       </c>
       <c r="K136" s="8" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M136" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N136" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="8" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C137" s="9">
-        <v>37057</v>
+        <v>37186</v>
       </c>
       <c r="D137" s="10">
-        <v>4.37</v>
-      </c>
-      <c r="E137" s="10"/>
+        <v>1.95</v>
+      </c>
+      <c r="E137" s="10">
+        <v>-6.5</v>
+      </c>
       <c r="F137" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H137" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9">
-        <v>37519</v>
+        <v>37554</v>
       </c>
       <c r="K137" s="8" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L137" s="8" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M137" s="8" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N137" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="8" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C138" s="9">
-        <v>37004</v>
+        <v>37186</v>
       </c>
       <c r="D138" s="10">
-        <v>0.17599999999999999</v>
+        <v>6.85</v>
       </c>
       <c r="E138" s="10">
-        <v>-0.25</v>
+        <v>-6.5</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H138" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9">
-        <v>37235</v>
+        <v>37554</v>
       </c>
       <c r="K138" s="8" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L138" s="8" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M138" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N138" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="8" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C139" s="9">
-        <v>37004</v>
+        <v>37057</v>
       </c>
       <c r="D139" s="10">
-        <v>4.8</v>
-      </c>
-      <c r="E139" s="10">
-        <v>-0.25</v>
-      </c>
+        <v>4.37</v>
+      </c>
+      <c r="E139" s="10"/>
       <c r="F139" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H139" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="9">
-        <v>37235</v>
+        <v>37519</v>
       </c>
       <c r="K139" s="8" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L139" s="8" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M139" s="8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N139" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C140" s="9">
+        <v>37004</v>
+      </c>
+      <c r="D140" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="E140" s="10">
+        <v>-0.25</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9">
+        <v>37235</v>
+      </c>
+      <c r="K140" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="M140" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N140" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="B140" s="8" t="s">
+      <c r="B141" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="C140" s="9">
+      <c r="C141" s="9">
+        <v>37004</v>
+      </c>
+      <c r="D141" s="10">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E141" s="10">
+        <v>-0.25</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9">
+        <v>37235</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N141" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C142" s="9">
         <v>36353</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D142" s="10">
         <v>23.5</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E142" s="10">
         <v>4.03</v>
       </c>
-      <c r="F140" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="H140" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="I140" s="9">
+      <c r="F142" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="I142" s="9">
         <v>36353</v>
       </c>
-      <c r="J140" s="9"/>
-      <c r="K140" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L140" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="M140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N140" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
-      <c r="A142" s="4" t="s">
-        <v>471</v>
+      <c r="J142" s="9"/>
+      <c r="K142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M142" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N142" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="4" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
